--- a/biology/Médecine/Raphé_(anatomie)/Raphé_(anatomie).xlsx
+++ b/biology/Médecine/Raphé_(anatomie)/Raphé_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raph%C3%A9_(anatomie)</t>
+          <t>Raphé_(anatomie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un raphé est, en anatomie, une structure formée par l'entrecroisement de fibres musculaires, tendineuses ou nerveuses, au niveau d'une ligne médiane[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un raphé est, en anatomie, une structure formée par l'entrecroisement de fibres musculaires, tendineuses ou nerveuses, au niveau d'une ligne médiane.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raph%C3%A9_(anatomie)</t>
+          <t>Raphé_(anatomie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot vient du grec ancien ῥαφή / rhaphế qui signifie « couture »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot vient du grec ancien ῥαφή / rhaphế qui signifie « couture ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raph%C3%A9_(anatomie)</t>
+          <t>Raphé_(anatomie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Types de raphés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il se trouve de nombreux raphés dans le corps humain[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il se trouve de nombreux raphés dans le corps humain :
 raphé du bulbe rachidien ;
 raphé palatin, pharyngien ;
 raphé périnéal ;
